--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Machine_Learning\YOUTUBE\Deepface\face_recog_attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\DeepFace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91740C9D-04FF-4D46-9FF2-02750E5464BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF694AC-AFD1-4769-9FEC-13CA052481A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E59AE73-E9BA-47D7-94BF-D68AD927B5EB}"/>
+    <workbookView xWindow="4845" yWindow="0" windowWidth="18465" windowHeight="15480" xr2:uid="{3E59AE73-E9BA-47D7-94BF-D68AD927B5EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2024-01-08" sheetId="3" r:id="rId1"/>
+    <sheet name="2024-01-07" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,12 +29,24 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+  <si>
+    <t>STUDENT</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,13 +395,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28C4D4F-C316-46E7-B7D2-6901662C2ADE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7B5584-83E8-4A86-93CE-FF22B12EB201}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3887BD-726B-4BC6-AE7C-00C24B78F143}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28C4D4F-C316-46E7-B7D2-6901662C2ADE}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>